--- a/PracticeKubernetes/HighLevelArchitect.xlsx
+++ b/PracticeKubernetes/HighLevelArchitect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datngo/Documents/projects/angularp/bringItToWorkBench/MyWorkspace/PracticeKubernetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19365F96-5CBB-C147-9118-FBC1AE9B4F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83754880-8E61-3046-8418-CD6348641347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="30120" windowHeight="19660" activeTab="4" xr2:uid="{7163BF78-181A-544F-82E9-AAA875B226C7}"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="30120" windowHeight="19660" activeTab="6" xr2:uid="{7163BF78-181A-544F-82E9-AAA875B226C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Pod" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="SecretAndConfgMaps" sheetId="3" r:id="rId3"/>
     <sheet name="Services" sheetId="4" r:id="rId4"/>
     <sheet name="A_sample" sheetId="5" r:id="rId5"/>
-    <sheet name="others" sheetId="6" r:id="rId6"/>
+    <sheet name="Logs" sheetId="7" r:id="rId6"/>
+    <sheet name="ExtensionAndSecurity" sheetId="8" r:id="rId7"/>
+    <sheet name="others" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ReplicationController!$A$1:$BI$100</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Some detailed explaination for file mysql.yaml</t>
   </si>
@@ -175,12 +177,86 @@
   <si>
     <t>We need an audit trail to track all the job that is running in the system</t>
   </si>
+  <si>
+    <t>More detail on jobs/lobster-db-schema-load.yaml</t>
+  </si>
+  <si>
+    <t>?? It's weird that I cannot find any documentation about this key name as "task" for kubernetes task or job</t>
+  </si>
+  <si>
+    <t>There is API for us to get log for each container, so that we can do anything with any log, and it is "live"</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/tasks/run-application/rolling-update-replication-controller/</t>
+  </si>
+  <si>
+    <t>config rolling update policy for kubernets cluster</t>
+  </si>
+  <si>
+    <t>E.g</t>
+  </si>
+  <si>
+    <t>Change http into https</t>
+  </si>
+  <si>
+    <t>and, we don't want to redeploy those containers</t>
+  </si>
+  <si>
+    <t>the sys admin should be able to secure the app without going back to the dev team</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in k8s, we can support </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>customized extension</t>
+    </r>
+  </si>
+  <si>
+    <t>Mre detail on file "lobster-secure.yaml"</t>
+  </si>
+  <si>
+    <t>More detail on "kube-cert-manager.yaml"</t>
+  </si>
+  <si>
+    <t>This is the production</t>
+  </si>
+  <si>
+    <t>What we are trying to do is to get a valid certificate from the encrypt that my browser trust</t>
+  </si>
+  <si>
+    <t>and inject it as the k8s secret on the backend</t>
+  </si>
+  <si>
+    <t>so that my pod doesn't know the difference</t>
+  </si>
+  <si>
+    <t>In the background, we do not do any compilation</t>
+  </si>
+  <si>
+    <t>so we don't create provider and then recompile something</t>
+  </si>
+  <si>
+    <t>The deamon run in the background and they watching for changes as soon as that certificate object created it's gonna</t>
+  </si>
+  <si>
+    <t>kickoff the job get the certificate from that encrypt , bring back to resolve and inject that into secret in realtime , no delays here</t>
+  </si>
+  <si>
+    <t>$ kubectl create -f deployment/kube-cert-manager.yaml</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +280,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,13 +320,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17856,6 +17959,2399 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244620</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CD42C9-CDD9-8F49-BC71-18AF36041B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317499" y="33324800"/>
+          <a:ext cx="5007121" cy="6642100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533B4008-1694-A141-A5F4-48AD2B98E8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="33629600"/>
+          <a:ext cx="2082800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Oval 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A06DF58-4039-8D4C-A40A-8E79BED96922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946400" y="33648650"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Curved Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403EA37F-007A-764F-AE76-78B64B567938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3111500" y="33362900"/>
+          <a:ext cx="2895600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C35A428-0394-5447-A21D-5089F59D1114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="27063700"/>
+          <a:ext cx="1778000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Oval 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE9FCE9-C9DC-EB43-8774-C75AC520CED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="27120850"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Curved Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31316C60-8850-7346-B3A4-0C59E6747BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2273300" y="26289000"/>
+          <a:ext cx="2590800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB37DEB-F8EC-3844-B6EE-72CD2C157A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207000" y="25996900"/>
+          <a:ext cx="7708900" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>We can change this value as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> below:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>replicas: 10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Then run: $ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>kubectl apply -f  deployment/lobsters.yaml</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEFF060-378E-1D45-8437-5EF89F82518F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="419100" y="1600200"/>
+          <a:ext cx="5943600" cy="9667876"/>
+          <a:chOff x="419100" y="1600200"/>
+          <a:chExt cx="5943600" cy="9667876"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E3AD85-9547-D649-A049-6BCB75C30ECF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="419100" y="1600200"/>
+            <a:ext cx="5943600" cy="8993312"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="Picture 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BBC64C-6472-FF48-B870-C83693E1713F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1282700" y="10591801"/>
+            <a:ext cx="2705100" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032A12B2-344D-2B43-9077-5023C5D4A193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="1816100"/>
+          <a:ext cx="10299700" cy="6997700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(10) Here is that we need</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- K8s will automatically create a restin point </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + store it inside this backend and manage everything to do with this particular state  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- with this object, we will create a new tool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + watch for those changes </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + &amp; do some implementation that when I see this certificate object, then it can go </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>    + and interact with list of encrypting and give me a real certificate back </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + and we want this to happen behind the scene so, when it's done we want it to populate the secret </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(10.1) Here is what we do:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- We add nginx above the existing pods (refer to file deployments/lobsters-secure.yaml)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + we don't have to work with dev team</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- We put a container on TOP of the same pod</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + That container gonna takes in the HTTPS traffic </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + That container needs a configuration, because it needs to know how to proxy to a backend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + Then it needs some certificate, and nginx happens to want to load this certificate from file system</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>    * So, environment variable won't work here </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- Summary: so we add a container right inside a pod, and then refer to choose secrets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>  + One secret is gonna be the TLS certificate and I want that to come from the encrypt </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>    * But I'm not gonna tell my app about this encrypt, I'm not gonna tell my system about this encrypt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>    * I wanna hold these abstraction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>- So, the next thing I want to do now is to create this config file for nginx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9058A3-1003-0641-8122-30667D6C8BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1155700" y="2019300"/>
+          <a:ext cx="4483100" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042DD64F-6C4F-604F-AE0E-433D6BFE6F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="2000250"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Curved Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B033131B-6DC4-844A-9B29-E479387A8F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501900" y="2082800"/>
+          <a:ext cx="4902200" cy="2374900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4496BB-2A3E-1543-B7D0-A62326B64CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="6432550"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4980BFE-FD3D-1447-919A-7F1ED52F38A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10541000" y="4451350"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4FF0A4-5D53-CA4D-A356-62D015CC527B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="6"/>
+          <a:endCxn id="12" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2679700" y="4533900"/>
+          <a:ext cx="8026400" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102848"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C77A004-6E1F-FB4D-86D0-22514EBA36FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292600" y="5810250"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306022</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5AF184-5719-C146-B09B-1FA1AA0D9AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="5"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5559425" y="4322397"/>
+          <a:ext cx="502872" cy="2754678"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45459"/>
+            <a:gd name="adj2" fmla="val 27387"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BB7B23-C401-6840-9BEA-1720E25FFA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188200" y="5365750"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860CA03F-CF57-B847-A7FC-E4907E6F8F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="6203950"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>140922</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9AC0BE-A551-1246-A2BA-C57041257E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="5"/>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5146675" y="4227147"/>
+          <a:ext cx="604472" cy="3630978"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10505"/>
+            <a:gd name="adj2" fmla="val 50333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF310F6-6958-7C43-BEC6-7A31290093B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7264400" y="5657850"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBB8B37-3610-3B40-9911-DD91D7CCFA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1155700" y="9753600"/>
+          <a:ext cx="3302000" cy="1689100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Oval 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941063E0-B575-4044-B613-3BCC7D268981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="9855200"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191722</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>179022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Elbow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275B6E09-03CC-7A4C-AECF-071E0CC9334A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="5"/>
+          <a:endCxn id="40" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7585075" y="2976197"/>
+          <a:ext cx="3754072" cy="10285778"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6733"/>
+            <a:gd name="adj2" fmla="val 102222"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01415CDB-FCF1-094E-B7A6-7CB88BC699B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="6159500"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1ED7A1-FF21-8243-975A-D26A6A5A88B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="10375900"/>
+          <a:ext cx="10299700" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>This configuration require us to create a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> config Map</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>$ kubectl create configmap nginx --from-file configs/lobsters.conf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Oval 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A8802D-5672-004F-8716-8B039201AA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679700" y="11061700"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442F215E-1165-A149-943B-218AC68A656D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9550400" y="10871200"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280622</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>179022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>49578</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Elbow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D3E51-AA58-1341-A933-F10F1BA51C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="5"/>
+          <a:endCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6102350" y="7730394"/>
+          <a:ext cx="190500" cy="6753956"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79359"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88525749-803F-164B-BD55-79D79B993197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="12458700"/>
+          <a:ext cx="8623300" cy="6832600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04945946-BA91-D345-B12A-7CE080361DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="15811500"/>
+          <a:ext cx="6286500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>138478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Oval 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CB551C-238C-7240-B671-7A8259CFC237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7378700" y="15848378"/>
+          <a:ext cx="165100" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>217122</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Elbow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201ED109-0468-A244-915C-71FB647828B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8566761" y="14942161"/>
+          <a:ext cx="12700" cy="2106978"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+            <a:gd name="adj2" fmla="val 50574"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18162,7 +20658,7 @@
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18177,7 +20673,7 @@
       <selection activeCell="AG90" sqref="AG90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18193,7 +20689,7 @@
       <selection activeCell="AW43" sqref="AW43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18208,7 +20704,7 @@
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18217,182 +20713,192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F179C3A1-EAA9-C342-8AE3-CC6A79092FB5}">
-  <dimension ref="A41:U147"/>
+  <dimension ref="A41:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="Q148" sqref="Q148"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="T136" sqref="T136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="Q46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="17:20">
       <c r="Q54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="17:20">
       <c r="R62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="17:20">
       <c r="S63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="17:20">
       <c r="T64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="18:21">
       <c r="U65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="18:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="18:21">
       <c r="R66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="17:20">
       <c r="Q82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="17:20">
       <c r="R83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="17:20">
       <c r="R84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="17:20">
       <c r="S85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="17:20">
       <c r="T86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="17:20">
       <c r="Q87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="17:20">
       <c r="R88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="17:20">
       <c r="Q89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="17:20">
       <c r="Q94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="17:20">
       <c r="Q95" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="17:20">
       <c r="R96" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="Q97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="R98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="S99" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="Q100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="R101" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="S102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="T103" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="S104" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="L107" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="M108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="N109" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="16:17">
       <c r="P146" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="16:17">
       <c r="Q147" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="T165" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -18402,21 +20908,150 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974CAA4-2080-EB4A-AF18-73ECB06E7AAE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8B14C-DFE4-1B40-AFAC-1776D4BAF350}">
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F4F97-EDC7-3848-891A-F8DD22198CCF}">
+  <dimension ref="A1:AF89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="AK96" sqref="AK96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="31:31">
+      <c r="AE79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="31:31">
+      <c r="AE80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="31:32">
+      <c r="AF81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="31:32">
+      <c r="AF82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="31:32">
+      <c r="AE84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="31:32">
+      <c r="AF85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="31:32">
+      <c r="AE86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="31:32">
+      <c r="AF87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="31:32" ht="21">
+      <c r="AE89" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974CAA4-2080-EB4A-AF18-73ECB06E7AAE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{85A4CB8C-1E55-7943-A591-4890AC08252E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>